--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BB1F93-FB53-4192-9873-8DFE65B69163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC37BA75-BC72-481F-9ACC-F2E558D827A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="12180" windowHeight="10920" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FD2104-FE63-4627-855F-F59D2062EFC9}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,414 +425,431 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B2">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B3">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="B4">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="B5">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="B6">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B7">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B8">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B9">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B10">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="B11">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="B12">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45394</v>
+        <v>45395</v>
       </c>
       <c r="B13">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B14">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C14">
         <v>19</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B15">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B16">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B17">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="B18">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="B19">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B20">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>193</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B21">
+        <v>220</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
         <v>193</v>
       </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
+      <c r="I21" t="s">
         <v>5</v>
-      </c>
-      <c r="E21">
-        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B22">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B23">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B24">
+        <v>207</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45383</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>227</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>SUM(B2:B24)</f>
-        <v>4879</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:E25" si="0">SUM(C2:C24)</f>
-        <v>444</v>
-      </c>
-      <c r="D25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>SUM(B2:B25)</f>
+        <v>5111</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:E26" si="0">SUM(C2:C25)</f>
+        <v>462</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="E25">
+        <v>131</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>4309</v>
+        <v>4518</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC37BA75-BC72-481F-9ACC-F2E558D827A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD55023-CBFE-4F9E-AD75-A5D56AAF7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="12180" windowHeight="10920" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FD2104-FE63-4627-855F-F59D2062EFC9}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,431 +425,448 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B2">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B3">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B4">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="B5">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="B6">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="B7">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B8">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B9">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B10">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B11">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="B12">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="B13">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45394</v>
+        <v>45395</v>
       </c>
       <c r="B14">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B15">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B16">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C16">
         <v>19</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B17">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B18">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="B19">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="B20">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B21">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>193</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B22">
+        <v>220</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
         <v>193</v>
       </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
+      <c r="I22" t="s">
         <v>5</v>
-      </c>
-      <c r="E22">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B23">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B24">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B25">
+        <v>207</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45383</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>227</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>19</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>SUM(B2:B25)</f>
-        <v>5111</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:E26" si="0">SUM(C2:C25)</f>
-        <v>462</v>
-      </c>
-      <c r="D26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>SUM(B2:B26)</f>
+        <v>5313</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:E27" si="0">SUM(C2:C26)</f>
+        <v>477</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E26">
+        <v>141</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>4518</v>
+        <v>4695</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD55023-CBFE-4F9E-AD75-A5D56AAF7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF19E16-30A0-48F2-86E7-60A1C67C187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="12180" windowHeight="10920" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>count: 243,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    timeCategories: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 211,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 11</t>
   </si>
 </sst>
 </file>
@@ -395,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FD2104-FE63-4627-855F-F59D2062EFC9}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +421,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,450 +438,485 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B2">
+        <v>243</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45407</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>202</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45406</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>232</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45405</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>214</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45404</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>226</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45403</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>211</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45402</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>196</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45401</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>214</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45400</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>225</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B10">
-        <v>206</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B11">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B12">
+        <v>191</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45397</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>218</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45396</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>236</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45395</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>197</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>22</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45394</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>244</v>
-      </c>
-      <c r="C15">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45393</v>
-      </c>
-      <c r="B16">
-        <v>225</v>
       </c>
       <c r="C16">
         <v>19</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B17">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>19</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B18">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B19">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="B20">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="B21">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B22">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>193</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
         <v>193</v>
       </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
+      <c r="I23" t="s">
         <v>5</v>
-      </c>
-      <c r="E23">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B24">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B25">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C25">
         <v>20</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B26">
+        <v>207</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45383</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>227</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>19</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>SUM(B2:B26)</f>
-        <v>5313</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:E27" si="0">SUM(C2:C26)</f>
-        <v>477</v>
-      </c>
-      <c r="D27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>SUM(B2:B27)</f>
+        <v>5556</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:E28" si="0">SUM(C2:C27)</f>
+        <v>498</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="E27">
+        <v>152</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>4695</v>
+        <v>4906</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF19E16-30A0-48F2-86E7-60A1C67C187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C560F-8908-4F02-B57F-362AC605BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="12180" windowHeight="10920" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -45,19 +45,19 @@
     <t xml:space="preserve">    }</t>
   </si>
   <si>
-    <t>count: 243,</t>
-  </si>
-  <si>
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 211,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 11</t>
+    <t xml:space="preserve">   count: 192,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 163,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 23,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
   </si>
 </sst>
 </file>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FD2104-FE63-4627-855F-F59D2062EFC9}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,485 +438,499 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B2">
+        <v>192</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45408</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>243</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45407</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>202</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45406</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>232</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45405</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>214</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45404</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>226</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45403</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>211</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45402</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>196</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45401</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>214</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45400</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>225</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>198</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B11">
-        <v>206</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>184</v>
-      </c>
-      <c r="H11" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B12">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>184</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B13">
+        <v>191</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>166</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45397</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>218</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>198</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45396</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>236</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>209</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45395</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>197</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>7</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>168</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45394</v>
-      </c>
-      <c r="B16">
-        <v>244</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B17">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C17">
         <v>19</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B18">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B19">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B20">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="B21">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="B22">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B23">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>193</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B24">
+        <v>220</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
         <v>193</v>
       </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
+      <c r="I24" t="s">
         <v>5</v>
-      </c>
-      <c r="E24">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B25">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B26">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C26">
         <v>20</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B27">
+        <v>207</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45383</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>227</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>SUM(B2:B27)</f>
-        <v>5556</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:E28" si="0">SUM(C2:C27)</f>
-        <v>498</v>
-      </c>
-      <c r="D28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>SUM(B2:B28)</f>
+        <v>5748</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:E29" si="0">SUM(C2:C28)</f>
+        <v>521</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="E28">
+        <v>158</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>4906</v>
+        <v>5069</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C560F-8908-4F02-B57F-362AC605BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8245EB32-56D4-44BE-A9E1-4C3A178D18D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -45,19 +45,19 @@
     <t xml:space="preserve">    }</t>
   </si>
   <si>
-    <t xml:space="preserve">    timeCategories: {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   count: 192,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 163,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 23,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
+    <t xml:space="preserve">  landed: { count: 111, timeCategories: { 'Regular arrivals': 111 } },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  scheduled: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    count: 123,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    timeCategories: { 'Night hour arrivals': 117, 'Regular arrivals': 6 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
   </si>
 </sst>
 </file>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FD2104-FE63-4627-855F-F59D2062EFC9}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,192 +440,189 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45409</v>
+        <v>45410</v>
       </c>
       <c r="B2">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>163</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45408</v>
+        <v>45409</v>
       </c>
       <c r="B3">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B4">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B5">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B6">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B7">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="B8">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="B9">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="B10">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B11">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>198</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B12">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="J12" t="s">
         <v>6</v>
@@ -633,304 +630,324 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B13">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B14">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="B15">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>198</v>
+      </c>
+      <c r="J15" t="s">
         <v>9</v>
-      </c>
-      <c r="E15">
-        <v>209</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="B16">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>168</v>
+        <v>209</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45394</v>
+        <v>45395</v>
       </c>
       <c r="B17">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B18">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B19">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B20">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B21">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="B22">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="B23">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B24">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>193</v>
-      </c>
-      <c r="I24" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B25">
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
         <v>193</v>
       </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
+      <c r="I25" t="s">
         <v>5</v>
-      </c>
-      <c r="E25">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B26">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B27">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B28">
+        <v>207</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45383</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>227</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>19</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>SUM(B2:B28)</f>
-        <v>5748</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:E29" si="0">SUM(C2:C28)</f>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>SUM(B2:B29)</f>
+        <v>5859</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:E30" si="0">SUM(C2:C29)</f>
         <v>521</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>5069</v>
+        <v>5180</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C64E8-6817-45BC-B4DB-2E10645377D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432011E8-B014-4DCA-A00D-BC65B7AFFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>count: 212,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    timeCategories: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 182,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 9</t>
   </si>
 </sst>
 </file>
@@ -79,11 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +444,8 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45411</v>
       </c>
     </row>
@@ -940,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +964,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,73 +981,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B2">
+        <v>212</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45415</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>219</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45414</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>212</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>21</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B4">
-        <v>229</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B5">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>660</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:E5" si="0">SUM(C2:C4)</f>
-        <v>65</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>872</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:E6" si="0">SUM(C2:C5)</f>
+        <v>86</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>589</v>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432011E8-B014-4DCA-A00D-BC65B7AFFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A939D-B103-4AFB-8282-12201BAC83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t>count: 212,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    timeCategories: {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 182,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 9</t>
   </si>
 </sst>
 </file>
@@ -953,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +949,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,115 +966,107 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B2">
+        <v>251</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45416</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>212</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45415</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>219</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45414</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>212</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>21</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B5">
-        <v>229</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B6">
+        <v>229</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
-        <v>872</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:E6" si="0">SUM(C2:C5)</f>
-        <v>86</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>1123</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:E7" si="0">SUM(C2:C6)</f>
+        <v>104</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>10</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A939D-B103-4AFB-8282-12201BAC83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E41B5-DC85-4B04-908A-BF1827C30DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> count: 251,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    timeCategories: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 217,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 27,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -938,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +964,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,107 +981,149 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B2">
         <v>251</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B3">
+        <v>251</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45416</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>212</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45415</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>219</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45414</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>212</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>21</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B6">
-        <v>229</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B7">
+        <v>229</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>SUM(B2:B6)</f>
-        <v>1123</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:E7" si="0">SUM(C2:C6)</f>
-        <v>104</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>1374</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:E8" si="0">SUM(C2:C7)</f>
+        <v>131</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>997</v>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E41B5-DC85-4B04-908A-BF1827C30DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2C0729-8AD1-40DA-A8CD-9D6982DCF058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -46,19 +46,19 @@
     <t xml:space="preserve">    }</t>
   </si>
   <si>
-    <t xml:space="preserve"> count: 251,</t>
-  </si>
-  <si>
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 217,</t>
+    <t xml:space="preserve">    count: 227,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 27,</t>
+    <t xml:space="preserve">      'Regular arrivals': 195,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
+    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +964,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,148 +981,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B2">
+        <v>227</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45418</v>
-      </c>
-      <c r="B2">
-        <v>251</v>
-      </c>
-      <c r="C2">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45417</v>
       </c>
       <c r="B3">
         <v>251</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B4">
+        <v>251</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45416</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>212</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45415</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>219</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45414</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>212</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>21</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B7">
-        <v>229</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B8">
+        <v>229</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>1374</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:E8" si="0">SUM(C2:C7)</f>
-        <v>131</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>1601</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:E9" si="0">SUM(C2:C8)</f>
+        <v>157</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2C0729-8AD1-40DA-A8CD-9D6982DCF058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC88E6-A0DE-4130-93B6-7D554089B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t xml:space="preserve">    count: 227,</t>
+    <t>count: 223,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 195,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 24,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
+    <t xml:space="preserve">      'Regular arrivals': 194,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,163 +983,180 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B3">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B4">
         <v>251</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B5">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B6">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B7">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B8">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B9">
+        <v>229</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>SUM(B2:B8)</f>
-        <v>1601</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:E9" si="0">SUM(C2:C8)</f>
-        <v>157</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>1824</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:E10" si="0">SUM(C2:C9)</f>
+        <v>181</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>7</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC88E6-A0DE-4130-93B6-7D554089B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553DFD6-BB85-47E2-809B-068B764A2118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="12180" windowHeight="10920" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t>count: 223,</t>
+    <t>count: 264,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 24,</t>
+    <t xml:space="preserve">      'Regular arrivals': 231,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 194,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,109 +983,109 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B2">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B3">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B4">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B5">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B6">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B7">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B8">
         <v>212</v>
@@ -1094,53 +1094,83 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B9">
+        <v>219</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B10">
+        <v>212</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45413</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>229</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>SUM(B2:B9)</f>
-        <v>1824</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:E10" si="0">SUM(C2:C9)</f>
-        <v>181</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>2335</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="0">SUM(C2:C11)</f>
+        <v>232</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553DFD6-BB85-47E2-809B-068B764A2118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D92001-F499-4687-9F2A-2BA2E1A1F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="600" windowWidth="12180" windowHeight="10920" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t>count: 264,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 231,</t>
-  </si>
-  <si>
     <t xml:space="preserve">      'Night hour arrivals': 26,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
+    <t xml:space="preserve">  count: 203,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 168,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 9</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,210 +983,227 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B2">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B4">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B5">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B6">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B7">
         <v>251</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B8">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B9">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B10">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B11">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B12">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>202</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>SUM(B2:B11)</f>
-        <v>2335</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:E12" si="0">SUM(C2:C11)</f>
-        <v>232</v>
-      </c>
-      <c r="D12">
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>2538</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>258</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="H12" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H13" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D92001-F499-4687-9F2A-2BA2E1A1F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB6D3D-C269-47F8-9E7B-E848485F9135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="4125" yWindow="0" windowWidth="12180" windowHeight="10920" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
+    <t>count: 242,</t>
   </si>
   <si>
-    <t xml:space="preserve">  count: 203,</t>
+    <t xml:space="preserve">      'Regular arrivals': 212,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 168,</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 7,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 9</t>
+    <t xml:space="preserve">      'Night hour arrivals': 23</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,227 +983,244 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="B2">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B3">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>26</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B4">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B5">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B6">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B7">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B8">
         <v>251</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B9">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B10">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B11">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B12">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B13">
+        <v>229</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>202</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>SUM(B2:B12)</f>
-        <v>2538</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
-        <v>258</v>
-      </c>
-      <c r="D13">
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>2780</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:E14" si="0">SUM(C2:C13)</f>
+        <v>281</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>2216</v>
-      </c>
-      <c r="H13" t="s">
+        <v>2428</v>
+      </c>
+      <c r="H14" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB6D3D-C269-47F8-9E7B-E848485F9135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB803076-1037-4B35-8C01-1342B972A8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="0" windowWidth="12180" windowHeight="10920" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t>count: 242,</t>
+    <t>ount: 227,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 212,</t>
+    <t xml:space="preserve">      'Regular arrivals': 198,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 7,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 27,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 23</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 2</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,244 +983,261 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="B2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="B3">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B4">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B5">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B6">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B7">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B8">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B9">
         <v>251</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B10">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B11">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B12">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B13">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B14">
+        <v>229</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>202</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>2780</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:E14" si="0">SUM(C2:C13)</f>
-        <v>281</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>3007</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:E15" si="0">SUM(C2:C14)</f>
+        <v>308</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="E14">
+        <v>73</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>2428</v>
-      </c>
-      <c r="H14" t="s">
+        <v>2626</v>
+      </c>
+      <c r="H15" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB803076-1037-4B35-8C01-1342B972A8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25CD3F-D1F1-496F-BB4E-F3AB82E61C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="0" windowWidth="12180" windowHeight="10920" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -49,16 +49,19 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t>ount: 227,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 198,</t>
-  </si>
-  <si>
     <t xml:space="preserve">      'Night hour arrivals': 27,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 2</t>
+    <t xml:space="preserve"> landed: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    count: 251,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 219,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
   </si>
 </sst>
 </file>
@@ -953,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +967,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,196 +984,205 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B2">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B3">
+        <v>231</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B4">
+        <v>227</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45424</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>242</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>23</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45423</v>
-      </c>
-      <c r="B4">
-        <v>203</v>
-      </c>
-      <c r="C4">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B5">
-        <v>264</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B6">
+        <v>203</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B7">
+        <v>264</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45421</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>247</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45420</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>223</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45419</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>227</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45418</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>251</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>27</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>217</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45417</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>251</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>226</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45416</v>
-      </c>
-      <c r="B11">
-        <v>212</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45415</v>
-      </c>
-      <c r="B12">
-        <v>219</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45414</v>
       </c>
       <c r="B13">
         <v>212</v>
@@ -1179,66 +1191,88 @@
         <v>21</v>
       </c>
       <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>182</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B14">
+        <v>219</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>199</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B15">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45413</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>229</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>202</v>
       </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>SUM(B2:B14)</f>
-        <v>3007</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:E15" si="0">SUM(C2:C14)</f>
-        <v>308</v>
-      </c>
-      <c r="D15">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>3489</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:E17" si="0">SUM(C2:C16)</f>
+        <v>363</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="E15">
+        <v>86</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>2626</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>10</v>
+        <v>3040</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25CD3F-D1F1-496F-BB4E-F3AB82E61C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18412B83-9901-4A9A-95A5-44F831C11172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -49,19 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 27,</t>
+    <t xml:space="preserve"> count: 242,</t>
   </si>
   <si>
-    <t xml:space="preserve"> landed: {</t>
+    <t xml:space="preserve">      'Regular arrivals': 211,</t>
   </si>
   <si>
-    <t xml:space="preserve">    count: 251,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 28,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 219,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 3</t>
   </si>
 </sst>
 </file>
@@ -956,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,195 +983,192 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="B2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B4">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="B5">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="B6">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B7">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="C7">
         <v>26</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B8">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B9">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B10">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>195</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B11">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>195</v>
+      </c>
+      <c r="I11" t="s">
         <v>7</v>
-      </c>
-      <c r="E11">
-        <v>217</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B12">
         <v>251</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
@@ -1182,97 +1176,114 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B13">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B14">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B15">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B16">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B17">
+        <v>229</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>SUM(B2:B16)</f>
-        <v>3489</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:E17" si="0">SUM(C2:C16)</f>
-        <v>363</v>
-      </c>
-      <c r="D17">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>SUM(B2:B17)</f>
+        <v>3731</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:E18" si="0">SUM(C2:C17)</f>
+        <v>391</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="E17">
+        <v>89</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>3040</v>
+        <v>3251</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18412B83-9901-4A9A-95A5-44F831C11172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C162065-B812-4E7A-883C-203FEA2C3757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t xml:space="preserve"> count: 242,</t>
+    <t xml:space="preserve"> count: 224,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 211,</t>
+    <t xml:space="preserve">      'Regular arrivals': 199,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 28,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 18,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 3</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,307 +983,324 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="B2">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="B3">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="B4">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B5">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="B6">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="B7">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B8">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="C8">
         <v>26</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B9">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B10">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>195</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B12">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>195</v>
+      </c>
+      <c r="I12" t="s">
         <v>7</v>
-      </c>
-      <c r="E12">
-        <v>217</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B13">
         <v>251</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B14">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="I14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B15">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>188</v>
+        <v>199</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B17">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B18">
+        <v>229</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>SUM(B2:B17)</f>
-        <v>3731</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:E18" si="0">SUM(C2:C17)</f>
-        <v>391</v>
-      </c>
-      <c r="D18">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>SUM(B2:B18)</f>
+        <v>3955</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:E19" si="0">SUM(C2:C18)</f>
+        <v>409</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E18">
+        <v>96</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>3251</v>
+        <v>3450</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C162065-B812-4E7A-883C-203FEA2C3757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE486A-0279-486A-9F1A-805CBEBA8BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    timeCategories: {</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> count: 224,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 199,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 18,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -953,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +949,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,279 +966,264 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="B2">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="B3">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="B4">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B5">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C5">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B6">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B7">
+        <v>231</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B8">
+        <v>227</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45424</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>242</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>23</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45423</v>
-      </c>
-      <c r="B8">
-        <v>203</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B9">
-        <v>264</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B10">
+        <v>203</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B11">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45421</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>247</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45420</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>223</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45419</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>227</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>26</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>195</v>
       </c>
-      <c r="I12" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B15">
+        <v>251</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45418</v>
-      </c>
-      <c r="B13">
+      <c r="E15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B16">
         <v>251</v>
       </c>
-      <c r="C13">
-        <v>27</v>
-      </c>
-      <c r="D13">
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
         <v>7</v>
       </c>
-      <c r="E13">
-        <v>217</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45417</v>
-      </c>
-      <c r="B14">
-        <v>251</v>
-      </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
+      <c r="E16">
         <v>226</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B15">
-        <v>212</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>182</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45415</v>
-      </c>
-      <c r="B16">
-        <v>219</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>199</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B17">
         <v>212</v>
@@ -1262,45 +1232,79 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B18">
+        <v>219</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B19">
+        <v>212</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45413</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>229</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>24</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>SUM(B2:B18)</f>
-        <v>3955</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19:E19" si="0">SUM(C2:C18)</f>
-        <v>409</v>
-      </c>
-      <c r="D19">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>SUM(B2:B20)</f>
+        <v>4408</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:E21" si="0">SUM(C2:C20)</f>
+        <v>452</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="E19">
+        <v>108</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>3450</v>
+        <v>3848</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE486A-0279-486A-9F1A-805CBEBA8BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73188C3-1D0D-4DE9-B44A-1D111EBAEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,296 +968,296 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="B2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="B3">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="B4">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="B5">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="B6">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B7">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C7">
         <v>28</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B8">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C8">
         <v>27</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="B10">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="B11">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="B12">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B13">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B14">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B15">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B16">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B17">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B18">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B19">
         <v>212</v>
@@ -1266,45 +1266,79 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B20">
+        <v>219</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B21">
+        <v>212</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45413</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>229</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>24</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>SUM(B2:B20)</f>
-        <v>4408</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:E21" si="0">SUM(C2:C20)</f>
-        <v>452</v>
-      </c>
-      <c r="D21">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM(B2:B22)</f>
+        <v>4870</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:E23" si="0">SUM(C2:C22)</f>
+        <v>501</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="E21">
+        <v>114</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>3848</v>
+        <v>4255</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73188C3-1D0D-4DE9-B44A-1D111EBAEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A06934-BF92-4AF8-A84D-1BEC282F6BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    timeCategories: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 210,</t>
+  </si>
+  <si>
+    <t>count: 243,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -938,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +964,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,332 +981,347 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="B3">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B4">
+        <v>230</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45431</v>
-      </c>
-      <c r="B4">
-        <v>240</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="B5">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="B6">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="B7">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="B8">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B9">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>28</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B10">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C10">
         <v>27</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>219</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B11">
+        <v>231</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>195</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B12">
+        <v>227</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45424</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>242</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>23</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45423</v>
-      </c>
-      <c r="B12">
-        <v>203</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B13">
-        <v>264</v>
-      </c>
-      <c r="C13">
-        <v>26</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B14">
+        <v>203</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B15">
+        <v>264</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45421</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>247</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>8</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45420</v>
-      </c>
-      <c r="B15">
-        <v>223</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45419</v>
-      </c>
-      <c r="B16">
-        <v>227</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B17">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B18">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B19">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B20">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B21">
         <v>212</v>
@@ -1300,45 +1330,79 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B22">
+        <v>219</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B23">
+        <v>212</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45413</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>229</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>SUM(B2:B22)</f>
-        <v>4870</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:E23" si="0">SUM(C2:C22)</f>
-        <v>501</v>
-      </c>
-      <c r="D23">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>SUM(B2:B24)</f>
+        <v>5355</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:E25" si="0">SUM(C2:C24)</f>
+        <v>551</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="E23">
+        <v>129</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>4255</v>
+        <v>4675</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A06934-BF92-4AF8-A84D-1BEC282F6BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CFDE18-1B00-40BD-8CDC-484F92B3F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="4125" yWindow="0" windowWidth="12180" windowHeight="10920" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 210,</t>
+    <t>count: 214,</t>
   </si>
   <si>
-    <t>count: 243,</t>
+    <t xml:space="preserve">      'Regular arrivals': 187,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +964,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,381 +981,381 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B2">
+        <v>214</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B3">
+        <v>248</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45435</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>243</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45434</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>242</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45433</v>
-      </c>
-      <c r="B4">
-        <v>230</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45432</v>
-      </c>
-      <c r="B5">
-        <v>232</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B6">
+        <v>230</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45431</v>
-      </c>
-      <c r="B6">
-        <v>240</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
       <c r="E6">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="B7">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="B8">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>199</v>
-      </c>
-      <c r="I8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>211</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="B10">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>219</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B11">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C11">
         <v>28</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>195</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B12">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C12">
         <v>27</v>
       </c>
       <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B13">
+        <v>231</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B14">
+        <v>227</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>198</v>
       </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45424</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>242</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>23</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45423</v>
-      </c>
-      <c r="B14">
-        <v>203</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B15">
-        <v>264</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="B16">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B17">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B18">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B19">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B20">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B21">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B22">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B23">
         <v>212</v>
@@ -1364,45 +1364,79 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B24">
+        <v>219</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B25">
+        <v>212</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45413</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>229</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>SUM(B2:B24)</f>
-        <v>5355</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:E25" si="0">SUM(C2:C24)</f>
-        <v>551</v>
-      </c>
-      <c r="D25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>SUM(B2:B26)</f>
+        <v>5817</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:E27" si="0">SUM(C2:C26)</f>
+        <v>604</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="E25">
+        <v>139</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>4675</v>
+        <v>5074</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CFDE18-1B00-40BD-8CDC-484F92B3F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E33EBF-4501-43F1-9375-AA2B6944B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="0" windowWidth="12180" windowHeight="10920" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,413 +983,413 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="B2">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="B3">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>212</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="B4">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="B5">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B6">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>202</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="B7">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C7">
         <v>24</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>205</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="B8">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="B9">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="B10">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="B11">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>211</v>
+        <v>187</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="B12">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>219</v>
+        <v>199</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B13">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C13">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B14">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="B15">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="B16">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="B17">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="B18">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B19">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B20">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B21">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B22">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B23">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B24">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B25">
         <v>212</v>
@@ -1398,45 +1398,79 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B26">
+        <v>219</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B27">
+        <v>212</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45413</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>229</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>24</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>SUM(B2:B26)</f>
-        <v>5817</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:E27" si="0">SUM(C2:C26)</f>
-        <v>604</v>
-      </c>
-      <c r="D27">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>SUM(B2:B28)</f>
+        <v>6256</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:E29" si="0">SUM(C2:C28)</f>
+        <v>660</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="E27">
+        <v>143</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>5074</v>
+        <v>5453</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E33EBF-4501-43F1-9375-AA2B6944B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348FDA34-E784-47F7-8901-2FDD980BB7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t>count: 214,</t>
+    <t>count: 252,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 187,</t>
+    <t xml:space="preserve">      'Regular arrivals': 222,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 4</t>
   </si>
 </sst>
 </file>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,447 +983,447 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="B2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="B3">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="B4">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="B5">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>212</v>
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="B6">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>210</v>
+        <v>187</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="B7">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>212</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
-      </c>
-      <c r="E7">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B8">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="B9">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="B10">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>211</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="B11">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>187</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="B12">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>199</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="B13">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="B14">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B15">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C15">
         <v>28</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B16">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="B17">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="B18">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="B19">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="B20">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B21">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B22">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B23">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B24">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B25">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B26">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B27">
         <v>212</v>
@@ -1432,45 +1432,79 @@
         <v>21</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B28">
+        <v>219</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B29">
+        <v>212</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45413</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>229</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>24</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>SUM(B2:B28)</f>
-        <v>6256</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:E29" si="0">SUM(C2:C28)</f>
-        <v>660</v>
-      </c>
-      <c r="D29">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(B2:B30)</f>
+        <v>6755</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:E31" si="0">SUM(C2:C30)</f>
+        <v>715</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="E29">
+        <v>152</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>5453</v>
+        <v>5888</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348FDA34-E784-47F7-8901-2FDD980BB7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607CCBE6-C3A0-44FD-8A2E-7B1FF44E2DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="May" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -49,16 +50,28 @@
     <t xml:space="preserve">    timeCategories: {</t>
   </si>
   <si>
-    <t>count: 252,</t>
+    <t xml:space="preserve">  count: 267,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 222,</t>
+    <t xml:space="preserve">      'Regular arrivals': 236,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 26,</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 7,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 4</t>
+    <t xml:space="preserve">      'Night hour arrivals': 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> count: 209,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 173,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 30,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
   </si>
 </sst>
 </file>
@@ -953,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,481 +996,481 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="B2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="B4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="B5">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>162</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="B6">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>187</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="B7">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>212</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="B8">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>210</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>210</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B10">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="B11">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>205</v>
+        <v>210</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="B12">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>211</v>
+        <v>202</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="B13">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>187</v>
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="B14">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="B15">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="B16">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="B17">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C17">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B18">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C18">
         <v>27</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="B19">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="B20">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="B21">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="B22">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B23">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B24">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B25">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B26">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B27">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B28">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="B29">
         <v>212</v>
@@ -1466,45 +1479,156 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B30">
+        <v>219</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B31">
+        <v>212</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45413</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>229</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>24</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>SUM(B2:B30)</f>
-        <v>6755</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:E31" si="0">SUM(C2:C30)</f>
-        <v>715</v>
-      </c>
-      <c r="D31">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>SUM(B2:B32)</f>
+        <v>7270</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:E33" si="0">SUM(C2:C32)</f>
+        <v>767</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="E31">
+        <v>167</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
-        <v>5888</v>
+        <v>6336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B2">
+        <v>209</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607CCBE6-C3A0-44FD-8A2E-7B1FF44E2DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7AF79-C3ED-4A17-9B05-4ECDEC353CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -60,18 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">      'Night hour arrivals': 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> count: 209,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 173,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 30,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H9" sqref="H9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1560,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1589,46 +1577,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B2">
+        <v>252</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45444</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>209</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>14</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>461</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" si="0">SUM(C2:C3)</f>
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7AF79-C3ED-4A17-9B05-4ECDEC353CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42054F-6945-4999-8F65-67AC6214EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -1549,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,54 +1579,71 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="B2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B3">
+        <v>252</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45444</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>209</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v>461</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:E4" si="0">SUM(C2:C3)</f>
-        <v>56</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>673</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:E5" si="0">SUM(C2:C4)</f>
+        <v>57</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42054F-6945-4999-8F65-67AC6214EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34862481-AE84-4B1E-BDFF-C5AEE74C35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -1549,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45446</v>
+        <v>45449</v>
       </c>
       <c r="B2">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1591,59 +1591,110 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45445</v>
+        <v>45448</v>
       </c>
       <c r="B3">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>217</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B5">
+        <v>212</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B6">
+        <v>252</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45444</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>209</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>673</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:E5" si="0">SUM(C2:C4)</f>
-        <v>57</v>
-      </c>
-      <c r="D5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>815</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:E8" si="0">SUM(C2:C7)</f>
+        <v>85</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>601</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34862481-AE84-4B1E-BDFF-C5AEE74C35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05B9A5-F9F0-4490-B52F-E2E068B86CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="4125" yWindow="0" windowWidth="12180" windowHeight="10920" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="April" sheetId="1" r:id="rId1"/>
     <sheet name="May" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="June" sheetId="3" r:id="rId3"/>
+    <sheet name="all" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve">      'Night hour arrivals': 24</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -414,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FD2104-FE63-4627-855F-F59D2062EFC9}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE8A7C-0A43-4190-8997-8D67F3456349}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="A2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,122 +1586,1325 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45449</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45448</v>
+        <v>45453</v>
       </c>
       <c r="B3">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45447</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B5">
-        <v>212</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>211</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45445</v>
-      </c>
-      <c r="B6">
-        <v>252</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>217</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B8">
+        <v>141</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B10">
+        <v>212</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B11">
+        <v>252</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45444</v>
       </c>
+      <c r="B12">
+        <v>209</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>988</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F78A1-D843-4C0C-8CEA-32B089F68384}">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E72" sqref="A1:E72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B5">
+        <v>192</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B6">
+        <v>243</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45407</v>
+      </c>
       <c r="B7">
+        <v>202</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B8">
+        <v>232</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>209</v>
       </c>
-      <c r="C7">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B9">
+        <v>214</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B10">
+        <v>226</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B11">
+        <v>211</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B12">
+        <v>196</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B13">
+        <v>214</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B14">
+        <v>225</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B15">
+        <v>206</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B16">
+        <v>191</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B17">
+        <v>218</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B18">
+        <v>236</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B19">
+        <v>197</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B20">
+        <v>244</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B21">
+        <v>225</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B22">
+        <v>236</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B23">
+        <v>216</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B24">
+        <v>238</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B25">
+        <v>172</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B26">
+        <v>138</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B27">
+        <v>220</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B28">
+        <v>193</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B29">
+        <v>229</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B30">
+        <v>207</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B31">
+        <v>227</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B32">
+        <v>267</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B33">
+        <v>248</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B34">
+        <v>252</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B35">
+        <v>247</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B36">
+        <v>253</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B37">
+        <v>186</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B38">
+        <v>214</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B39">
+        <v>248</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B40">
+        <v>243</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B41">
+        <v>242</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B42">
+        <v>230</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B43">
+        <v>232</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B44">
+        <v>240</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B45">
+        <v>213</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B46">
+        <v>224</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B47">
+        <v>242</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B48">
+        <v>251</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B49">
+        <v>231</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B50">
+        <v>227</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B51">
+        <v>242</v>
+      </c>
+      <c r="C51">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B52">
+        <v>203</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B53">
+        <v>264</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B54">
+        <v>247</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B55">
+        <v>223</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B56">
+        <v>227</v>
+      </c>
+      <c r="C56">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B57">
+        <v>251</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B58">
+        <v>251</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B59">
+        <v>212</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B60">
+        <v>219</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B61">
+        <v>212</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B62">
+        <v>229</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B63">
+        <v>174</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B68">
+        <v>141</v>
+      </c>
+      <c r="C68">
+        <v>27</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B70">
+        <v>212</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B71">
+        <v>252</v>
+      </c>
+      <c r="C71">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B72">
+        <v>209</v>
+      </c>
+      <c r="C72">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D72">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E72">
         <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>815</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:E8" si="0">SUM(C2:C7)</f>
-        <v>85</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05B9A5-F9F0-4490-B52F-E2E068B86CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE76AFA-9ED4-47CA-82A1-AD3666F0A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="0" windowWidth="12180" windowHeight="10920" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -1556,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1567,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,156 +1584,223 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B2">
+        <v>242</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B3">
+        <v>246</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B4">
+        <v>251</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45454</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B5">
+        <v>242</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45453</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>174</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E6">
+        <v>145</v>
+      </c>
+      <c r="J6">
+        <f>222+(C2+C3+C4+C5)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45452</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45451</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45450</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45449</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45448</v>
-      </c>
-      <c r="B8">
-        <v>141</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45447</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B10">
-        <v>212</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B11">
+        <v>141</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B13">
+        <v>212</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45445</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>252</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45444</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>209</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>988</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>112</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>757</v>
       </c>
     </row>
@@ -1746,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F78A1-D843-4C0C-8CEA-32B089F68384}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E72" sqref="A1:E72"/>
     </sheetView>
   </sheetViews>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE76AFA-9ED4-47CA-82A1-AD3666F0A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D4E23A-14C2-4E42-8EC0-A3945AAFB42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -1556,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1567,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,223 +1584,307 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B3">
+        <v>260</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45456</v>
-      </c>
-      <c r="B3">
-        <v>246</v>
-      </c>
-      <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45455</v>
+        <v>45458</v>
       </c>
       <c r="B4">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B5">
         <v>242</v>
       </c>
       <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B6">
+        <v>246</v>
+      </c>
+      <c r="C6">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>210</v>
+      </c>
+      <c r="J6">
+        <f>SUM(B2,B3,B4)</f>
+        <v>740</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:M6" si="0">SUM(C2,C3,C4)</f>
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B7">
+        <v>251</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E7">
+        <v>218</v>
+      </c>
+      <c r="J7">
+        <v>3079</v>
+      </c>
+      <c r="K7">
+        <v>336</v>
+      </c>
+      <c r="L7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B8">
+        <v>242</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="J8">
+        <f>SUM(J7,J6)</f>
+        <v>3819</v>
+      </c>
+      <c r="K8">
+        <f>SUM(K7,K6)</f>
+        <v>417</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L7,L6)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45453</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>174</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>145</v>
       </c>
-      <c r="J6">
-        <f>222+(C2+C3+C4+C5)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45452</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45451</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45450</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45449</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45448</v>
-      </c>
-      <c r="B11">
-        <v>141</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45447</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B13">
-        <v>212</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B14">
+        <v>141</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B16">
+        <v>212</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45445</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>252</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45444</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>209</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>988</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>112</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D4E23A-14C2-4E42-8EC0-A3945AAFB42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65E4F9-FA61-492E-9B63-8DA74F3EF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -1556,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1567,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,231 +1584,224 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B3">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B4">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B5">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B6">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>210</v>
+        <v>186</v>
+      </c>
+      <c r="H6">
+        <v>511</v>
+      </c>
+      <c r="I6">
+        <v>55</v>
       </c>
       <c r="J6">
-        <f>SUM(B2,B3,B4)</f>
-        <v>740</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:M6" si="0">SUM(C2,C3,C4)</f>
-        <v>81</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B7">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C7">
         <v>26</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="H7">
+        <v>3819</v>
+      </c>
+      <c r="I7">
+        <v>417</v>
       </c>
       <c r="J7">
-        <v>3079</v>
-      </c>
-      <c r="K7">
-        <v>336</v>
-      </c>
-      <c r="L7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C8">
         <v>31</v>
       </c>
       <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>210</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H6:H7)</f>
+        <v>4330</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="0">SUM(I6:I7)</f>
+        <v>472</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B9">
+        <v>251</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E9">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B10">
+        <v>242</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
         <v>204</v>
       </c>
-      <c r="J8">
-        <f>SUM(J7,J6)</f>
-        <v>3819</v>
-      </c>
-      <c r="K8">
-        <f>SUM(K7,K6)</f>
-        <v>417</v>
-      </c>
-      <c r="L8">
-        <f>SUM(L7,L6)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45453</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>174</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45452</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45451</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45450</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45449</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45448</v>
-      </c>
-      <c r="B14">
-        <v>141</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45447</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1823,68 +1816,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45445</v>
+        <v>45447</v>
       </c>
       <c r="B17">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B18">
+        <v>212</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B19">
+        <v>252</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45444</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>209</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>6</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>988</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>112</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65E4F9-FA61-492E-9B63-8DA74F3EF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C5599A-15D9-41A3-BCBC-64A26F40D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    count: 255,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 28,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 219,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 8</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:J8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1579,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,258 +1596,282 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B3">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C3">
         <v>29</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B5">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B6">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>186</v>
-      </c>
-      <c r="H6">
-        <v>511</v>
-      </c>
-      <c r="I6">
-        <v>55</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B7">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H7">
-        <v>3819</v>
+        <v>495</v>
       </c>
       <c r="I7">
-        <v>417</v>
+        <v>57</v>
       </c>
       <c r="J7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B8">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="H8">
-        <f>SUM(H6:H7)</f>
-        <v>4330</v>
+        <v>511</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:J8" si="0">SUM(I6:I7)</f>
-        <v>472</v>
+        <v>55</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B9">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="H9">
+        <v>3819</v>
+      </c>
+      <c r="I9">
+        <v>417</v>
+      </c>
+      <c r="J9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B10">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C10">
         <v>31</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>210</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H7:H9)</f>
+        <v>4825</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:J10" si="0">SUM(I7:I9)</f>
+        <v>529</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B11">
+        <v>251</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B12">
+        <v>242</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
         <v>204</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45453</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>174</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45452</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45451</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45450</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45449</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45448</v>
-      </c>
-      <c r="B16">
-        <v>141</v>
-      </c>
-      <c r="C16">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>111</v>
+      <c r="L16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1852,66 +1888,100 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="B18">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45445</v>
+        <v>45447</v>
       </c>
       <c r="B19">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B20">
+        <v>212</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B21">
+        <v>252</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45444</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>209</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>988</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>112</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>19</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C5599A-15D9-41A3-BCBC-64A26F40D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C7882-6FC0-4F25-B6BC-6BA466E0F31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -69,16 +69,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">    count: 255,</t>
+    <t>count: 233,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 28,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 23,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 219,</t>
+    <t xml:space="preserve">      'Regular arrivals': 206,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 8</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 4</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,390 +1598,450 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45463</v>
+        <v>45466</v>
       </c>
       <c r="B3">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45462</v>
+        <v>45465</v>
       </c>
       <c r="B4">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45461</v>
+        <v>45464</v>
       </c>
       <c r="B5">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="B6">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="B7">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>230</v>
-      </c>
-      <c r="H7">
-        <v>495</v>
-      </c>
-      <c r="I7">
-        <v>57</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45458</v>
+        <v>45461</v>
       </c>
       <c r="B8">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>186</v>
-      </c>
-      <c r="H8">
-        <v>511</v>
-      </c>
-      <c r="I8">
-        <v>55</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="H9">
-        <v>3819</v>
+        <v>725</v>
       </c>
       <c r="I9">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="J9">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45456</v>
+        <v>45459</v>
       </c>
       <c r="B10">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H10">
-        <f>SUM(H7:H9)</f>
-        <v>4825</v>
+        <v>495</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:J10" si="0">SUM(I7:I9)</f>
-        <v>529</v>
+        <v>57</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45455</v>
+        <v>45458</v>
       </c>
       <c r="B11">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>218</v>
+        <v>186</v>
+      </c>
+      <c r="H11">
+        <v>511</v>
+      </c>
+      <c r="I11">
+        <v>55</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B12">
         <v>242</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>204</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
+        <v>213</v>
+      </c>
+      <c r="H12">
+        <v>3819</v>
+      </c>
+      <c r="I12">
+        <v>417</v>
+      </c>
+      <c r="J12">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="B13">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>145</v>
-      </c>
-      <c r="L13" t="s">
-        <v>6</v>
+        <v>210</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H9:H12)</f>
+        <v>5550</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:J13" si="0">SUM(I9:I12)</f>
+        <v>605</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45452</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
+        <v>45455</v>
+      </c>
+      <c r="B14">
+        <v>251</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45451</v>
+        <v>45454</v>
+      </c>
+      <c r="B15">
+        <v>242</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>204</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B16">
+        <v>174</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45452</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45451</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45450</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45449</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45448</v>
-      </c>
-      <c r="B18">
-        <v>141</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45447</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B20">
-        <v>212</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B21">
+        <v>141</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B23">
+        <v>212</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45445</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>252</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>26</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <v>9</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45444</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>209</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>30</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>988</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>112</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C7882-6FC0-4F25-B6BC-6BA466E0F31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBD8262-DB86-4423-BB42-010A2747FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -69,16 +69,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>count: 233,</t>
+    <t xml:space="preserve">  landed: {</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 23,</t>
+    <t xml:space="preserve">    count: 209,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 206,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 19,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 4</t>
+    <t xml:space="preserve">      'Regular arrivals': 185,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,316 +1601,334 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45466</v>
+        <v>45467</v>
       </c>
       <c r="B3">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45465</v>
+        <v>45466</v>
       </c>
       <c r="B4">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45464</v>
+        <v>45465</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B6">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B7">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B9">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H9">
-        <v>725</v>
+        <v>209</v>
       </c>
       <c r="I9">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B10">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H10">
-        <v>495</v>
+        <v>725</v>
       </c>
       <c r="I10">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B11">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="H11">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="I11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B12">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H12">
-        <v>3819</v>
+        <v>511</v>
       </c>
       <c r="I12">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B13">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H13">
-        <f>SUM(H9:H12)</f>
-        <v>5550</v>
+        <v>3819</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:J13" si="0">SUM(I9:I12)</f>
-        <v>605</v>
+        <v>417</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B14">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H9:H13)</f>
+        <v>5759</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:J14" si="0">SUM(I9:I13)</f>
+        <v>624</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B15">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>204</v>
-      </c>
-      <c r="L15" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="B16">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="L16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45452</v>
+        <v>45453</v>
+      </c>
+      <c r="B17">
+        <v>174</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>145</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -1915,133 +1936,144 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45451</v>
+        <v>45452</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45449</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>45450</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B21">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B23">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="B24">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B25">
+        <v>252</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45444</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>209</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>6</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>988</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>112</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>19</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBD8262-DB86-4423-BB42-010A2747FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA4B4A-EE93-40A2-A01E-5CAD45FF06BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -67,21 +67,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  landed: {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    count: 209,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 19,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 185,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L15" sqref="L15:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1567,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1599,481 +1584,489 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B2">
+        <v>228</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45468</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>209</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45467</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>233</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45466</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>266</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>28</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45465</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>226</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45464</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>255</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45463</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>240</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>29</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45462</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>258</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>26</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45461</v>
-      </c>
-      <c r="B9">
-        <v>253</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9">
+        <v>226</v>
+      </c>
+      <c r="H9">
+        <v>228</v>
+      </c>
+      <c r="I9">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B10">
+        <v>253</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>218</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>209</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>19</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45460</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>259</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>26</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>226</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>725</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>76</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45459</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>260</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>27</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>230</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>495</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>57</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45458</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>221</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>186</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>511</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>55</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45457</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>242</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>26</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>213</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>3819</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>417</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45456</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>246</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>210</v>
       </c>
-      <c r="H14">
-        <f>SUM(H9:H13)</f>
-        <v>5759</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14:J14" si="0">SUM(I9:I13)</f>
-        <v>624</v>
-      </c>
-      <c r="J14">
+      <c r="H15">
+        <f>SUM(H9:H14)</f>
+        <v>5987</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:J15" si="0">SUM(I9:I14)</f>
+        <v>647</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45455</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>251</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>26</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45454</v>
-      </c>
-      <c r="B16">
-        <v>242</v>
-      </c>
-      <c r="C16">
-        <v>31</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B17">
+        <v>242</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
         <v>204</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45453</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>174</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>28</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>145</v>
       </c>
-      <c r="L17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45452</v>
       </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45451</v>
       </c>
-      <c r="L19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45450</v>
       </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45449</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45448</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>141</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>27</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45447</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B24">
-        <v>212</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B25">
+        <v>212</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45445</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>252</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>26</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>9</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45444</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>209</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>30</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>988</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>112</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>19</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA4B4A-EE93-40A2-A01E-5CAD45FF06BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF36A7-834E-43E2-8B9B-0E379FFE43BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  count: 204,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 187,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 2</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:L19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1579,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,489 +1596,530 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B2">
+        <v>204</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45469</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>228</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>23</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45468</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>209</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45467</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>233</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45466</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>266</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>28</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45465</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>226</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45464</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>255</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45463</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>240</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>209</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="H9">
+        <v>204</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45462</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>258</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>26</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>226</v>
-      </c>
-      <c r="H9">
-        <v>228</v>
-      </c>
-      <c r="I9">
-        <v>23</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45461</v>
-      </c>
-      <c r="B10">
-        <v>253</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
+        <v>226</v>
+      </c>
+      <c r="H10">
+        <v>228</v>
+      </c>
+      <c r="I10">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B11">
+        <v>253</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>218</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>209</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>19</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45460</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>259</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>226</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>725</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>76</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45459</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>260</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>230</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>495</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>57</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45458</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>221</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>28</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>186</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>511</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>55</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45457</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>242</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>213</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>3819</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>417</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45456</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>246</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>31</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>210</v>
       </c>
-      <c r="H15">
-        <f>SUM(H9:H14)</f>
-        <v>5987</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ref="I15:J15" si="0">SUM(I9:I14)</f>
-        <v>647</v>
-      </c>
-      <c r="J15">
+      <c r="H16">
+        <f>SUM(H9:H15)</f>
+        <v>6191</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:J16" si="0">SUM(I9:I15)</f>
+        <v>662</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45455</v>
-      </c>
-      <c r="B16">
-        <v>251</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>218</v>
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B17">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="B18">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45452</v>
+        <v>45453</v>
+      </c>
+      <c r="B19">
+        <v>174</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45451</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45450</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45449</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B23">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B25">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="B26">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B27">
+        <v>252</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45444</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>209</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>30</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>988</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>112</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>19</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF36A7-834E-43E2-8B9B-0E379FFE43BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6B869-B7B9-45C6-9F43-496830666C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -69,16 +69,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">  count: 204,</t>
+    <t>landed: {</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 187,</t>
+    <t xml:space="preserve">    count: 217,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 15,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 2</t>
+    <t xml:space="preserve">      'Regular arrivals': 191,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,283 +1601,280 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B3">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B4">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B5">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45466</v>
+        <v>45467</v>
       </c>
       <c r="B6">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45465</v>
+        <v>45466</v>
       </c>
       <c r="B7">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45464</v>
+        <v>45465</v>
       </c>
       <c r="B8">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B9">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H9">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B10">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="H10">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="I10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B11">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H11">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B12">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H12">
-        <v>725</v>
+        <v>209</v>
       </c>
       <c r="I12">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J12">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B13">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H13">
-        <v>495</v>
+        <v>725</v>
       </c>
       <c r="I13">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B14">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="H14">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="I14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
@@ -1882,244 +1882,276 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B15">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H15">
-        <v>3819</v>
+        <v>511</v>
       </c>
       <c r="I15">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="J15">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B16">
+        <v>242</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>213</v>
+      </c>
+      <c r="H16">
+        <v>3819</v>
+      </c>
+      <c r="I16">
+        <v>417</v>
+      </c>
+      <c r="J16">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45456</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>246</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>210</v>
       </c>
-      <c r="H16">
-        <f>SUM(H9:H15)</f>
-        <v>6191</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16:J16" si="0">SUM(I9:I15)</f>
-        <v>662</v>
-      </c>
-      <c r="J16">
+      <c r="H17">
+        <f>SUM(H9:H16)</f>
+        <v>6408</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:J17" si="0">SUM(I9:I16)</f>
+        <v>683</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45455</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>251</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>26</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45454</v>
-      </c>
-      <c r="B18">
-        <v>242</v>
-      </c>
-      <c r="C18">
-        <v>31</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18">
+        <v>218</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B19">
+        <v>242</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45453</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>174</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>28</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45452</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45451</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45450</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45449</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45448</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>141</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>27</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45447</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B26">
-        <v>212</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B27">
+        <v>212</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45445</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>252</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45444</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>209</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>30</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>6</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>988</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>112</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>19</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6B869-B7B9-45C6-9F43-496830666C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17371D59-764C-48DF-817F-E8EA5258C692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -69,19 +69,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>landed: {</t>
+    <t xml:space="preserve"> landed: {</t>
   </si>
   <si>
-    <t xml:space="preserve">    count: 217,</t>
+    <t xml:space="preserve">    count: 193,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 21,</t>
+    <t xml:space="preserve">      'Night hour arrivals': 13,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 191,</t>
+    <t xml:space="preserve">      'Regular arrivals': 173,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,554 +1604,580 @@
         <v>45471</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B4">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B5">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B6">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45466</v>
+        <v>45467</v>
       </c>
       <c r="B7">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>232</v>
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45465</v>
+        <v>45466</v>
       </c>
       <c r="B8">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>194</v>
+        <v>232</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45464</v>
+        <v>45465</v>
       </c>
       <c r="B9">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="H9">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="I9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B10">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H10">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
         <v>15</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B11">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="H11">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="I11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B12">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H12">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B13">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H13">
-        <v>725</v>
+        <v>209</v>
       </c>
       <c r="I13">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J13">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B14">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14">
-        <v>495</v>
+        <v>725</v>
       </c>
       <c r="I14">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B15">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="H15">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="I15">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J15">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B16">
+        <v>221</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>186</v>
+      </c>
+      <c r="H16">
+        <v>511</v>
+      </c>
+      <c r="I16">
+        <v>55</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45457</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>242</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>213</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>3819</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>417</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>83</v>
       </c>
-      <c r="L16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45456</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>246</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>31</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>210</v>
       </c>
-      <c r="H17">
-        <f>SUM(H9:H16)</f>
-        <v>6408</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:J17" si="0">SUM(I9:I16)</f>
-        <v>683</v>
-      </c>
-      <c r="J17">
+      <c r="H18">
+        <f>SUM(H9:H17)</f>
+        <v>6601</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:J18" si="0">SUM(I9:I17)</f>
+        <v>696</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45455</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>251</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>26</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>218</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45454</v>
-      </c>
-      <c r="B19">
-        <v>242</v>
-      </c>
-      <c r="C19">
-        <v>31</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B20">
+        <v>242</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45453</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>174</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>28</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45452</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45451</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45450</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45449</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45448</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>141</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>27</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45447</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B27">
-        <v>212</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B28">
+        <v>212</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45445</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>252</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>26</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>9</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45444</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>209</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>30</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>988</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>112</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>19</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17371D59-764C-48DF-817F-E8EA5258C692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332B619-DCF2-4000-895E-846B75E1954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -67,21 +67,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> landed: {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    count: 193,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 13,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 173,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1567,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1599,585 +1584,593 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="B2">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45471</v>
       </c>
       <c r="B3">
+        <v>193</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B4">
         <v>217</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45470</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>204</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45469</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>228</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45468</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>209</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45467</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>233</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>23</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>206</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B9">
+        <v>266</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>232</v>
+      </c>
+      <c r="H9">
+        <v>231</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B10">
+        <v>226</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>194</v>
+      </c>
+      <c r="H10">
+        <v>193</v>
+      </c>
+      <c r="I10">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45466</v>
-      </c>
-      <c r="B8">
-        <v>266</v>
-      </c>
-      <c r="C8">
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="C11">
         <v>28</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>232</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45465</v>
-      </c>
-      <c r="B9">
-        <v>226</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>194</v>
-      </c>
-      <c r="H9">
-        <v>193</v>
-      </c>
-      <c r="I9">
-        <v>13</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45464</v>
-      </c>
-      <c r="B10">
-        <v>255</v>
-      </c>
-      <c r="C10">
-        <v>28</v>
-      </c>
-      <c r="D10">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>219</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>217</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>21</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B12">
+        <v>240</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>209</v>
+      </c>
+      <c r="H12">
+        <v>204</v>
+      </c>
+      <c r="I12">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45463</v>
-      </c>
-      <c r="B11">
-        <v>240</v>
-      </c>
-      <c r="C11">
-        <v>29</v>
-      </c>
-      <c r="D11">
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>209</v>
-      </c>
-      <c r="H11">
-        <v>204</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45462</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>258</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>26</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>226</v>
-      </c>
-      <c r="H12">
-        <v>228</v>
-      </c>
-      <c r="I12">
-        <v>23</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45461</v>
-      </c>
-      <c r="B13">
-        <v>253</v>
-      </c>
-      <c r="C13">
-        <v>29</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
+        <v>226</v>
+      </c>
+      <c r="H13">
+        <v>228</v>
+      </c>
+      <c r="I13">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B14">
+        <v>253</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
         <v>218</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>209</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>19</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45460</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>259</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>226</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>725</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>76</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45459</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>260</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>230</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>495</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>57</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45458</v>
-      </c>
-      <c r="B16">
-        <v>221</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>186</v>
-      </c>
-      <c r="H16">
-        <v>511</v>
-      </c>
-      <c r="I16">
-        <v>55</v>
-      </c>
-      <c r="J16">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B17">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H17">
-        <v>3819</v>
+        <v>511</v>
       </c>
       <c r="I17">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="J17">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B18">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H18">
-        <f>SUM(H9:H17)</f>
-        <v>6601</v>
+        <v>3819</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:J18" si="0">SUM(I9:I17)</f>
-        <v>696</v>
+        <v>417</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B19">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H9:H18)</f>
+        <v>6832</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:J19" si="0">SUM(I9:I18)</f>
+        <v>713</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B20">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="B21">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45452</v>
+        <v>45453</v>
+      </c>
+      <c r="B22">
+        <v>174</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45451</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45450</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45449</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B26">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B28">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="B29">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B30">
+        <v>252</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45444</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>209</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>988</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>112</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>19</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>757</v>
       </c>
     </row>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332B619-DCF2-4000-895E-846B75E1954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791B8D2-F688-4967-A0BB-ECD0BB1770C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
     <sheet name="May" sheetId="2" r:id="rId2"/>
     <sheet name="June" sheetId="3" r:id="rId3"/>
-    <sheet name="all" sheetId="4" r:id="rId4"/>
+    <sheet name="July" sheetId="5" r:id="rId4"/>
+    <sheet name="all" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -1558,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A5490-12E2-4F9B-9F0D-8B54A0D55008}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,6 +2181,171 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B3">
+        <v>162</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45479</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45480</v>
+      </c>
+      <c r="I8">
+        <f>SUM(B2,B3)</f>
+        <v>384</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3)</f>
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F78A1-D843-4C0C-8CEA-32B089F68384}">
   <dimension ref="A1:E72"/>
   <sheetViews>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791B8D2-F688-4967-A0BB-ECD0BB1770C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA12BED-904D-4E5D-8241-7B9E95E5F494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,21 +2248,69 @@
       <c r="A4" s="1">
         <v>45476</v>
       </c>
+      <c r="B4">
+        <v>219</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45477</v>
       </c>
+      <c r="B5">
+        <v>270</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>223</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45478</v>
       </c>
+      <c r="B6">
+        <v>279</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>237</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45479</v>
       </c>
+      <c r="B7">
+        <v>202</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>168</v>
+      </c>
       <c r="I7" t="s">
         <v>1</v>
       </c>
@@ -2277,17 +2325,29 @@
       <c r="A8" s="1">
         <v>45480</v>
       </c>
+      <c r="B8">
+        <v>257</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>219</v>
+      </c>
       <c r="I8">
-        <f>SUM(B2,B3)</f>
-        <v>384</v>
+        <f>SUM(B2,B3:B8)</f>
+        <v>1611</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3)</f>
-        <v>41</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C8)</f>
+        <v>211</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA12BED-904D-4E5D-8241-7B9E95E5F494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE89C03-258F-40D4-A82F-24EE2CD64B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,21 +2338,33 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B8)</f>
-        <v>1611</v>
+        <f>SUM(B2,B3:B9)</f>
+        <v>1883</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C8)</f>
-        <v>211</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C9)</f>
+        <v>244</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45481</v>
+      </c>
+      <c r="B9">
+        <v>272</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE89C03-258F-40D4-A82F-24EE2CD64B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58EF0E-6336-4CB2-BD4E-A76BA91DA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B9)</f>
-        <v>1883</v>
+        <f>SUM(B2,B3:B11)</f>
+        <v>2370</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C9)</f>
-        <v>244</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C11)</f>
+        <v>315</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2371,10 +2371,34 @@
       <c r="A10" s="1">
         <v>45482</v>
       </c>
+      <c r="B10">
+        <v>234</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>193</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45483</v>
+      </c>
+      <c r="B11">
+        <v>253</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58EF0E-6336-4CB2-BD4E-A76BA91DA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720A3E9-839F-4FEE-85C7-3F9D2974C755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>count: 256,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 211,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 38,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
   </si>
 </sst>
 </file>
@@ -2182,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +2205,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45474</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45475</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45476</v>
       </c>
@@ -2261,7 +2273,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45477</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45478</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45479</v>
       </c>
@@ -2321,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45480</v>
       </c>
@@ -2338,19 +2350,19 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B11)</f>
-        <v>2370</v>
+        <f>SUM(B2,B3:B12)</f>
+        <v>2626</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C11)</f>
-        <v>315</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C12)</f>
+        <v>353</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45481</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45482</v>
       </c>
@@ -2383,8 +2395,11 @@
       <c r="E10">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45483</v>
       </c>
@@ -2400,28 +2415,52 @@
       <c r="E11">
         <v>214</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45484</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>256</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>211</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45485</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45486</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45487</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45488</v>
       </c>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720A3E9-839F-4FEE-85C7-3F9D2974C755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D86497-8F15-4C96-AF4B-868A21622478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -70,16 +70,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>count: 256,</t>
+    <t>count: 220,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Regular arrivals': 211,</t>
+    <t xml:space="preserve">      'Regular arrivals': 193,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Night hour arrivals': 38,</t>
+    <t xml:space="preserve">      'Shoulder hour flights': 4,</t>
   </si>
   <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 7</t>
+    <t xml:space="preserve">      'Night hour arrivals': 23</t>
   </si>
 </sst>
 </file>
@@ -2350,16 +2350,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B12)</f>
-        <v>2626</v>
+        <f>SUM(B2,B3:B14)</f>
+        <v>3102</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C12)</f>
-        <v>353</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C14)</f>
+        <v>410</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2395,9 +2395,6 @@
       <c r="E10">
         <v>193</v>
       </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2416,7 +2413,7 @@
         <v>214</v>
       </c>
       <c r="L11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2436,28 +2433,55 @@
         <v>211</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45485</v>
       </c>
+      <c r="B13">
+        <v>256</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>217</v>
+      </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45486</v>
       </c>
+      <c r="B14">
+        <v>220</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>193</v>
+      </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45487</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D86497-8F15-4C96-AF4B-868A21622478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686F975D-FC02-4A30-9AA4-E1E18B8A16D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -68,18 +68,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>count: 220,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 193,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 23</t>
   </si>
 </sst>
 </file>
@@ -2194,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2193,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45474</v>
       </c>
@@ -2239,7 +2227,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45475</v>
       </c>
@@ -2256,7 +2244,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45476</v>
       </c>
@@ -2273,7 +2261,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45477</v>
       </c>
@@ -2290,7 +2278,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45478</v>
       </c>
@@ -2307,7 +2295,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45479</v>
       </c>
@@ -2333,7 +2321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45480</v>
       </c>
@@ -2350,19 +2338,19 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B14)</f>
-        <v>3102</v>
+        <f>SUM(B2,B3:B15)</f>
+        <v>3363</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C14)</f>
-        <v>410</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C15)</f>
+        <v>441</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45481</v>
       </c>
@@ -2379,7 +2367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45482</v>
       </c>
@@ -2396,7 +2384,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45483</v>
       </c>
@@ -2412,11 +2400,8 @@
       <c r="E11">
         <v>214</v>
       </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45484</v>
       </c>
@@ -2432,11 +2417,8 @@
       <c r="E12">
         <v>211</v>
       </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45485</v>
       </c>
@@ -2452,11 +2434,8 @@
       <c r="E13">
         <v>217</v>
       </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45486</v>
       </c>
@@ -2472,19 +2451,25 @@
       <c r="E14">
         <v>193</v>
       </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45487</v>
       </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>261</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45488</v>
       </c>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686F975D-FC02-4A30-9AA4-E1E18B8A16D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D6FA61-2397-4F3F-808B-8F225740B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B15)</f>
-        <v>3363</v>
+        <f>SUM(B2,B3:B17)</f>
+        <v>3871</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C15)</f>
-        <v>441</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C17)</f>
+        <v>508</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2473,13 +2473,37 @@
       <c r="A16" s="1">
         <v>45488</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>258</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45489</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>250</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45490</v>
       </c>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D6FA61-2397-4F3F-808B-8F225740B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37547B2-C062-46D7-95DB-72F671DC2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2182,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B17)</f>
-        <v>3871</v>
+        <f>SUM(B2,B3:B19)</f>
+        <v>4395</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C17)</f>
-        <v>508</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C19)</f>
+        <v>584</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2506,6 +2506,35 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45490</v>
+      </c>
+      <c r="B18">
+        <v>262</v>
+      </c>
+      <c r="C18">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B19">
+        <v>262</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37547B2-C062-46D7-95DB-72F671DC2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52421B8-DA38-4F3A-A152-E57C96B1557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2182,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M11" sqref="M11:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B19)</f>
-        <v>4395</v>
+        <f>SUM(B2,B3:B20)</f>
+        <v>4588</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C19)</f>
-        <v>584</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C20)</f>
+        <v>615</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2535,6 +2535,23 @@
       </c>
       <c r="E19">
         <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B20">
+        <v>193</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52421B8-DA38-4F3A-A152-E57C96B1557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C95223-E332-4E51-A633-6F27D3649AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
+  </si>
+  <si>
+    <t>count: 252,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 212,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 34,</t>
   </si>
 </sst>
 </file>
@@ -2182,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,16 +2350,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B20)</f>
-        <v>4588</v>
+        <f>SUM(B2,B3:B22)</f>
+        <v>5029</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C20)</f>
-        <v>615</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C22)</f>
+        <v>666</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2486,7 +2498,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45489</v>
       </c>
@@ -2503,7 +2515,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45490</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45491</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45492</v>
       </c>
@@ -2552,6 +2564,59 @@
       </c>
       <c r="E20">
         <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B21">
+        <v>189</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B22">
+        <v>252</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C95223-E332-4E51-A633-6F27D3649AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD2F30-D6D9-4712-8B1A-3EDB7783F142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -68,18 +68,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
-  </si>
-  <si>
-    <t>count: 252,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 212,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 34,</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2185,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:J24"/>
+      <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B22)</f>
-        <v>5029</v>
+        <f>SUM(B2,B3:B24)</f>
+        <v>5536</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C22)</f>
-        <v>666</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C24)</f>
+        <v>737</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2498,7 +2486,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45489</v>
       </c>
@@ -2515,7 +2503,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45490</v>
       </c>
@@ -2532,7 +2520,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45491</v>
       </c>
@@ -2549,7 +2537,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45492</v>
       </c>
@@ -2565,11 +2553,8 @@
       <c r="E20">
         <v>159</v>
       </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45493</v>
       </c>
@@ -2585,11 +2570,8 @@
       <c r="E21">
         <v>166</v>
       </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45494</v>
       </c>
@@ -2605,18 +2587,39 @@
       <c r="E22">
         <v>212</v>
       </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>13</v>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B23">
+        <v>254</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B24">
+        <v>253</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD2F30-D6D9-4712-8B1A-3EDB7783F142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583EF7C-E00B-4B36-8804-AAB1A4E372CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2182,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B24)</f>
-        <v>5536</v>
+        <f>SUM(B2,B3:B27)</f>
+        <v>6313</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C24)</f>
-        <v>737</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C27)</f>
+        <v>835</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2620,6 +2620,57 @@
       </c>
       <c r="E24">
         <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B25">
+        <v>255</v>
+      </c>
+      <c r="C25">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B26">
+        <v>262</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B27">
+        <v>260</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583EF7C-E00B-4B36-8804-AAB1A4E372CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF28286-2149-44E5-87E9-677228B5AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2182,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B27)</f>
-        <v>6313</v>
+        <f>SUM(B2,B3:B30)</f>
+        <v>7100</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C27)</f>
-        <v>835</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C30)</f>
+        <v>935</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2671,6 +2671,57 @@
       </c>
       <c r="E27">
         <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B28">
+        <v>232</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B29">
+        <v>278</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B30">
+        <v>277</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF28286-2149-44E5-87E9-677228B5AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8DA3CB-9F6A-436F-B476-A488EC55EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2182,9 +2182,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
@@ -2338,16 +2338,16 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <f>SUM(B2,B3:B30)</f>
-        <v>7100</v>
+        <f>SUM(B2,B3:B32)</f>
+        <v>7591</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C30)</f>
-        <v>935</v>
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C32)</f>
+        <v>994</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,6 +2722,40 @@
       </c>
       <c r="E30">
         <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B31">
+        <v>258</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B32">
+        <v>233</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8DA3CB-9F6A-436F-B476-A488EC55EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D7053B-118F-4B2F-85B9-740D083D8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
     <sheet name="May" sheetId="2" r:id="rId2"/>
     <sheet name="June" sheetId="3" r:id="rId3"/>
     <sheet name="July" sheetId="5" r:id="rId4"/>
-    <sheet name="all" sheetId="4" r:id="rId5"/>
+    <sheet name="August" sheetId="6" r:id="rId5"/>
+    <sheet name="all" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -2184,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506D388-4002-4CB9-8696-E40E6FE36088}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,6 +2765,175 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B2">
+        <v>242</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B3">
+        <v>261</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B4">
+        <v>229</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45510</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45511</v>
+      </c>
+      <c r="I8">
+        <f>SUM(B2,B3:B32)</f>
+        <v>987</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C32)</f>
+        <v>127</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F78A1-D843-4C0C-8CEA-32B089F68384}">
   <dimension ref="A1:E72"/>
   <sheetViews>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D7053B-118F-4B2F-85B9-740D083D8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707580C-4A98-497A-9B33-A7ED4AF26B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 35,</t>
+  </si>
+  <si>
+    <t>count: 264,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 223,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2789,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2794,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45505</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45506</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45507</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45508</v>
       </c>
@@ -2862,15 +2874,39 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45509</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>280</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45510</v>
       </c>
+      <c r="B7">
+        <v>264</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>223</v>
+      </c>
       <c r="I7" t="s">
         <v>1</v>
       </c>
@@ -2881,51 +2917,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45511</v>
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>987</v>
+        <v>1531</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:K8" si="0">SUM(C2,C3:C32)</f>
-        <v>127</v>
+        <f>SUM(C2,C3:C32)</f>
+        <v>197</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J8:K8" si="0">SUM(D2,D3:D32)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45513</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45514</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45515</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45516</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45517</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707580C-4A98-497A-9B33-A7ED4AF26B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04768B27-3302-4496-939A-848553356EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -69,18 +69,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 35,</t>
-  </si>
-  <si>
-    <t>count: 264,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 223,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 6</t>
   </si>
 </sst>
 </file>
@@ -2778,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L11" sqref="L11:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +2777,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45505</v>
       </c>
@@ -2823,7 +2811,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45506</v>
       </c>
@@ -2840,7 +2828,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45507</v>
       </c>
@@ -2857,7 +2845,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45508</v>
       </c>
@@ -2874,7 +2862,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45509</v>
       </c>
@@ -2891,7 +2879,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45510</v>
       </c>
@@ -2917,68 +2905,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45511</v>
       </c>
+      <c r="B8">
+        <v>262</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>218</v>
+      </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>1531</v>
+        <v>2335</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="J8:K8" si="0">SUM(D2,D3:D32)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45512</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>264</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45513</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>278</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45514</v>
       </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45515</v>
       </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45516</v>
       </c>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45517</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L15" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04768B27-3302-4496-939A-848553356EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE64362-B427-4FCE-9DDB-C1D64DD7B9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2769,7 +2769,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2923,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>2335</v>
+        <v>3095</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2972,15 +2972,51 @@
       <c r="A11" s="1">
         <v>45514</v>
       </c>
+      <c r="B11">
+        <v>237</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45515</v>
       </c>
+      <c r="B12">
+        <v>282</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>242</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45516</v>
+      </c>
+      <c r="B13">
+        <v>241</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE64362-B427-4FCE-9DDB-C1D64DD7B9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31075675-5E2F-484A-A102-FD0489FA6033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2766,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2923,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>3095</v>
+        <v>3540</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3022,6 +3022,60 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45517</v>
+      </c>
+      <c r="B14">
+        <v>246</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B15">
+        <v>199</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45523</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31075675-5E2F-484A-A102-FD0489FA6033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47287E-4004-4771-B581-363A1A746413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2769,7 +2769,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:N17"/>
+      <selection activeCell="L11" sqref="L11:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2923,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>3540</v>
+        <v>4487</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>434</v>
+        <v>554</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3057,23 +3057,71 @@
       <c r="A16" s="1">
         <v>45519</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>244</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45520</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>263</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45521</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>217</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45522</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>223</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45523</v>
       </c>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47287E-4004-4771-B581-363A1A746413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB5AE1-7B39-4E2F-ADAE-CA87BA33AAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2766,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2923,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>4487</v>
+        <v>5208</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>554</v>
+        <v>648</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3124,6 +3124,102 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45523</v>
+      </c>
+      <c r="B20">
+        <v>245</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B21">
+        <v>232</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B22">
+        <v>244</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45535</v>
       </c>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB5AE1-7B39-4E2F-ADAE-CA87BA33AAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E472E1E-33E3-4D44-B937-D4840C6D4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2923,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>5208</v>
+        <v>6253</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>648</v>
+        <v>793</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3176,20 +3176,68 @@
       <c r="A23" s="1">
         <v>45526</v>
       </c>
+      <c r="B23">
+        <v>271</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>229</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45527</v>
       </c>
+      <c r="B24">
+        <v>281</v>
+      </c>
+      <c r="C24">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>227</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45528</v>
       </c>
+      <c r="B25">
+        <v>229</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>188</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45529</v>
+      </c>
+      <c r="B26">
+        <v>264</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E472E1E-33E3-4D44-B937-D4840C6D4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CCFD49-DC39-48F0-AAF0-B33B2156E5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2923,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>6253</v>
+        <v>7033</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>793</v>
+        <v>889</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3244,15 +3244,51 @@
       <c r="A27" s="1">
         <v>45530</v>
       </c>
+      <c r="B27">
+        <v>275</v>
+      </c>
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>238</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45531</v>
       </c>
+      <c r="B28">
+        <v>245</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>209</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45532</v>
+      </c>
+      <c r="B29">
+        <v>260</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CCFD49-DC39-48F0-AAF0-B33B2156E5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8D48A-2403-419B-80D6-541FA87025A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2923,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>7033</v>
+        <v>7546</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>889</v>
+        <v>955</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3295,10 +3295,34 @@
       <c r="A30" s="1">
         <v>45533</v>
       </c>
+      <c r="B30">
+        <v>258</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>218</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45534</v>
+      </c>
+      <c r="B31">
+        <v>255</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8D48A-2403-419B-80D6-541FA87025A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31C4B43-FCEC-427B-82B4-D7B20FD87F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="June" sheetId="3" r:id="rId3"/>
     <sheet name="July" sheetId="5" r:id="rId4"/>
     <sheet name="August" sheetId="6" r:id="rId5"/>
-    <sheet name="all" sheetId="4" r:id="rId6"/>
+    <sheet name="September" sheetId="7" r:id="rId6"/>
+    <sheet name="all" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -69,6 +70,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>count: 235,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Regular arrivals': 208,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Night hour arrivals': 22,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
   </si>
 </sst>
 </file>
@@ -2768,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B165EB5-7F47-490D-81C0-772D65ED217E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,15 +2936,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>7546</v>
+        <v>7791</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>955</v>
+        <v>995</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3328,6 +3341,18 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45535</v>
+      </c>
+      <c r="B32">
+        <v>245</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3336,6 +3361,269 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D0696-FC93-4D6D-8347-D677506C685C}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B2">
+        <v>265</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B4">
+        <v>235</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45541</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45542</v>
+      </c>
+      <c r="I8">
+        <f>SUM(B2,B3:B32)</f>
+        <v>519</v>
+      </c>
+      <c r="J8">
+        <f>SUM(C2,C3:C32)</f>
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45546</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45547</v>
+      </c>
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45548</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45549</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45550</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45554</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F78A1-D843-4C0C-8CEA-32B089F68384}">
   <dimension ref="A1:E72"/>
   <sheetViews>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31C4B43-FCEC-427B-82B4-D7B20FD87F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040D617-44F6-4C2D-9777-96385C9F43C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>count: 235,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Regular arrivals': 208,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Night hour arrivals': 22,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      'Shoulder hour flights': 5</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3353,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,7 +3361,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3390,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45536</v>
       </c>
@@ -3407,7 +3395,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45537</v>
       </c>
@@ -3424,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45538</v>
       </c>
@@ -3441,17 +3429,29 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45539</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>259</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45540</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45541</v>
       </c>
@@ -3465,76 +3465,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45542</v>
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>519</v>
+        <v>778</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45543</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45544</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45545</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45546</v>
       </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45547</v>
       </c>
-      <c r="L13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45548</v>
       </c>
-      <c r="L14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45549</v>
       </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45550</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040D617-44F6-4C2D-9777-96385C9F43C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA323493-9884-4D9B-8CA9-D5653059F3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,11 +3450,35 @@
       <c r="A6" s="1">
         <v>45540</v>
       </c>
+      <c r="B6">
+        <v>221</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>166</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45541</v>
       </c>
+      <c r="B7">
+        <v>246</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>214</v>
+      </c>
       <c r="I7" t="s">
         <v>1</v>
       </c>
@@ -3469,17 +3493,29 @@
       <c r="A8" s="1">
         <v>45542</v>
       </c>
+      <c r="B8">
+        <v>205</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>173</v>
+      </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>778</v>
+        <v>1450</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA323493-9884-4D9B-8CA9-D5653059F3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37160C6-09ED-4CCE-8D86-456083702636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,25 +3507,49 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>1450</v>
+        <v>1983</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45543</v>
       </c>
+      <c r="B9">
+        <v>258</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>219</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45544</v>
+      </c>
+      <c r="B10">
+        <v>275</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37160C6-09ED-4CCE-8D86-456083702636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9D5BFE-4E63-4C84-BBB3-5B37365256B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>1983</v>
+        <v>2229</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3555,6 +3555,18 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45545</v>
+      </c>
+      <c r="B11">
+        <v>246</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9D5BFE-4E63-4C84-BBB3-5B37365256B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD66B9F-5747-4B62-B68A-1A7A127E8C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -3350,10 +3350,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D0696-FC93-4D6D-8347-D677506C685C}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>2229</v>
+        <v>3031</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>330</v>
+        <v>452</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3573,16 +3573,52 @@
       <c r="A12" s="1">
         <v>45546</v>
       </c>
+      <c r="B12">
+        <v>263</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>216</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45547</v>
       </c>
+      <c r="B13">
+        <v>276</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>224</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45548</v>
       </c>
+      <c r="B14">
+        <v>263</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>223</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3594,85 +3630,82 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45551</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45552</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45553</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45554</v>
       </c>
-      <c r="M20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45555</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45556</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45557</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45558</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45559</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45560</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45561</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45562</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45563</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45564</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45565</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD66B9F-5747-4B62-B68A-1A7A127E8C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02118469-E6C8-4EFD-8CF6-5C8A09DC2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:O20"/>
+      <selection activeCell="M13" sqref="M13:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>3031</v>
+        <v>3547</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3624,10 +3624,34 @@
       <c r="A15" s="1">
         <v>45549</v>
       </c>
+      <c r="B15">
+        <v>244</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>206</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45550</v>
+      </c>
+      <c r="B16">
+        <v>272</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02118469-E6C8-4EFD-8CF6-5C8A09DC2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B16E61-92EE-48EF-9524-C1ECCE91EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:N17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>3547</v>
+        <v>4592</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>514</v>
+        <v>666</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3654,82 +3654,130 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45551</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>275</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45552</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>253</v>
+      </c>
+      <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45553</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>264</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45554</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>253</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45555</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45556</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45557</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45558</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45559</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45560</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45561</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45562</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45563</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45564</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45565</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
   </sheetData>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B16E61-92EE-48EF-9524-C1ECCE91EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57E996-0363-429C-9910-AD6A840E36EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L16" sqref="L16:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>4592</v>
+        <v>4853</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3725,6 +3725,18 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45555</v>
+      </c>
+      <c r="B21">
+        <v>261</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57E996-0363-429C-9910-AD6A840E36EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F852E1-5B11-4894-9A7B-8E1639051C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3352,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D0696-FC93-4D6D-8347-D677506C685C}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:N21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>4853</v>
+        <v>5593</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>687</v>
+        <v>797</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3743,15 +3743,51 @@
       <c r="A22" s="1">
         <v>45556</v>
       </c>
+      <c r="B22">
+        <v>233</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>188</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45557</v>
       </c>
+      <c r="B23">
+        <v>257</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>210</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45558</v>
+      </c>
+      <c r="B24">
+        <v>250</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F852E1-5B11-4894-9A7B-8E1639051C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40980FC5-FE07-4B3C-8381-390643E81270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:K29"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>5593</v>
+        <v>6358</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>797</v>
+        <v>900</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3794,15 +3794,51 @@
       <c r="A25" s="1">
         <v>45559</v>
       </c>
+      <c r="B25">
+        <v>266</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>224</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45560</v>
       </c>
+      <c r="B26">
+        <v>262</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>219</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45561</v>
+      </c>
+      <c r="B27">
+        <v>237</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40980FC5-FE07-4B3C-8381-390643E81270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A260F984-49D4-4230-B122-5B711F8AAFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J21" sqref="J21:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>6358</v>
+        <v>6855</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>900</v>
+        <v>962</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3845,10 +3845,34 @@
       <c r="A28" s="1">
         <v>45562</v>
       </c>
+      <c r="B28">
+        <v>264</v>
+      </c>
+      <c r="C28">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>223</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45563</v>
+      </c>
+      <c r="B29">
+        <v>233</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A260F984-49D4-4230-B122-5B711F8AAFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A770FB-8487-4A3A-ADE8-B420D5DE1D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="July" sheetId="5" r:id="rId4"/>
     <sheet name="August" sheetId="6" r:id="rId5"/>
     <sheet name="September" sheetId="7" r:id="rId6"/>
-    <sheet name="all" sheetId="4" r:id="rId7"/>
+    <sheet name="October" sheetId="8" r:id="rId7"/>
+    <sheet name="all" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -3352,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D0696-FC93-4D6D-8347-D677506C685C}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:L26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,15 +3508,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>6855</v>
+        <v>7415</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>962</v>
+        <v>1045</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3879,10 +3880,34 @@
       <c r="A30" s="1">
         <v>45564</v>
       </c>
+      <c r="B30">
+        <v>284</v>
+      </c>
+      <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>230</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45565</v>
+      </c>
+      <c r="B31">
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3894,6 +3919,253 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5ABFF6-2DDD-4EAA-89BA-17F0F9C1330F}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B2">
+        <v>261</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B3">
+        <v>247</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45568</v>
+      </c>
+      <c r="B4">
+        <v>249</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45571</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45572</v>
+      </c>
+      <c r="I8">
+        <f>SUM(B2,B3:B32)</f>
+        <v>757</v>
+      </c>
+      <c r="J8">
+        <f>SUM(C2,C3:C32)</f>
+        <v>105</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F78A1-D843-4C0C-8CEA-32B089F68384}">
   <dimension ref="A1:E72"/>
   <sheetViews>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A770FB-8487-4A3A-ADE8-B420D5DE1D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E53B1-28BD-4682-A9CE-13484134DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3923,7 +3923,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:M17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,11 +4003,35 @@
       <c r="A5" s="1">
         <v>45569</v>
       </c>
+      <c r="B5">
+        <v>271</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45570</v>
       </c>
+      <c r="B6">
+        <v>224</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4029,15 +4053,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>757</v>
+        <v>1252</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E53B1-28BD-4682-A9CE-13484134DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB546A45-907F-4D80-8B24-30799E8D448A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3923,7 +3923,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I12" sqref="I12:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,6 +4037,18 @@
       <c r="A7" s="1">
         <v>45571</v>
       </c>
+      <c r="B7">
+        <v>269</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>229</v>
+      </c>
       <c r="I7" t="s">
         <v>1</v>
       </c>
@@ -4051,27 +4063,63 @@
       <c r="A8" s="1">
         <v>45572</v>
       </c>
+      <c r="B8">
+        <v>259</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>221</v>
+      </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>1252</v>
+        <v>2264</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45573</v>
       </c>
+      <c r="B9">
+        <v>237</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>194</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45574</v>
+      </c>
+      <c r="B10">
+        <v>247</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB546A45-907F-4D80-8B24-30799E8D448A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A63B77-AAF6-474C-99EE-1D8F49876F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3923,7 +3923,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,15 +4077,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>2264</v>
+        <v>2772</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4126,10 +4126,34 @@
       <c r="A11" s="1">
         <v>45575</v>
       </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>216</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45576</v>
+      </c>
+      <c r="B12">
+        <v>253</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A63B77-AAF6-474C-99EE-1D8F49876F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD32B7DA-C801-41FE-9237-000376FEA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3923,7 +3923,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,15 +4077,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>2772</v>
+        <v>4280</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>371</v>
+        <v>565</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4160,98 +4160,170 @@
       <c r="A13" s="1">
         <v>45577</v>
       </c>
+      <c r="B13">
+        <v>230</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>194</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45578</v>
       </c>
+      <c r="B14">
+        <v>261</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>221</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45579</v>
       </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45580</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>253</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45581</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>247</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45582</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>261</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45583</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45584</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45585</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45586</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45587</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45588</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45589</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45590</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45591</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45592</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45593</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45594</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45595</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45596</v>
       </c>

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD32B7DA-C801-41FE-9237-000376FEA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4FF393-B1C2-4438-9135-024EFDEA148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -3922,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5ABFF6-2DDD-4EAA-89BA-17F0F9C1330F}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,15 +4077,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>4280</v>
+        <v>5519</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>565</v>
+        <v>737</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4262,25 +4262,85 @@
       <c r="A19" s="1">
         <v>45583</v>
       </c>
+      <c r="B19">
+        <v>267</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>225</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45584</v>
       </c>
+      <c r="B20">
+        <v>240</v>
+      </c>
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>197</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45585</v>
       </c>
+      <c r="B21">
+        <v>233</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>181</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45586</v>
       </c>
+      <c r="B22">
+        <v>265</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>229</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45587</v>
+      </c>
+      <c r="B23">
+        <v>234</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data_240424a.xlsx
+++ b/Daily data_240424a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4FF393-B1C2-4438-9135-024EFDEA148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66957E31-56A6-4CAD-8715-40C8FFEA9B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -22,10 +22,21 @@
     <sheet name="October" sheetId="8" r:id="rId7"/>
     <sheet name="all" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2188,7 +2199,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,7 +3934,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,15 +4088,15 @@
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>5519</v>
+        <v>7378</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>737</v>
+        <v>909</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>115</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4347,40 +4358,136 @@
       <c r="A24" s="1">
         <v>45588</v>
       </c>
+      <c r="B24">
+        <v>229</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>229</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45589</v>
       </c>
+      <c r="B25">
+        <v>250</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>216</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45590</v>
       </c>
+      <c r="B26">
+        <v>266</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45591</v>
       </c>
+      <c r="B27">
+        <v>215</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>177</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45592</v>
       </c>
+      <c r="B28">
+        <v>246</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>203</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45593</v>
       </c>
+      <c r="B29">
+        <v>252</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>217</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45594</v>
       </c>
+      <c r="B30">
+        <v>207</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>169</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45595</v>
+      </c>
+      <c r="B31">
+        <v>194</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
